--- a/Data/EC/NIT-9008234721.xlsx
+++ b/Data/EC/NIT-9008234721.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD1139D-9F2D-4511-9FEC-CD8F7E6C62DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E3E88B-09F5-487A-B038-CBC48EF0C4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A1502FF-730B-4469-9B8F-44E1DC62EE41}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9469AA22-6516-47DD-AA7F-9D4808A3A148}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,181 +71,181 @@
     <t>DARIO CAICEDO ANAYA</t>
   </si>
   <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
     <t>1606</t>
   </si>
   <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
     <t>1003721673</t>
   </si>
   <si>
     <t>ESNEIDER ENRIQUE MEJIA PEREIRA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1052737831</t>
+  </si>
+  <si>
+    <t>JAIDER DAVID TORRES PALLARES</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1052737831</t>
-  </si>
-  <si>
-    <t>JAIDER DAVID TORRES PALLARES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -344,7 +344,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -357,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -559,23 +559,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +603,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6209EE-18BF-8A43-19D5-5408986C875D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C0C014-25AE-323C-C3E9-3A7A0BFEEF12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917208D6-D8DC-4830-98D4-A5B9AF8D3DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F433AAB2-8B3E-4633-87F5-443CB4A71CBC}">
   <dimension ref="B2:J115"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1257,7 +1257,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1280,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1326,7 +1326,7 @@
         <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1349,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1372,7 +1372,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1395,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1418,7 +1418,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1441,7 +1441,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1487,7 +1487,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1510,7 +1510,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1533,7 +1533,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1556,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1570,16 +1570,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>22624</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1599,10 +1599,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1616,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1662,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1691,10 +1691,10 @@
         <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1708,16 +1708,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1737,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1754,16 +1754,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1783,10 +1783,10 @@
         <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1800,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1829,10 +1829,10 @@
         <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1846,16 +1846,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1875,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F46" s="18">
         <v>25774</v>
@@ -1892,16 +1892,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1921,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>25774</v>
@@ -1938,16 +1938,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1967,7 +1967,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F50" s="18">
         <v>25774</v>
@@ -1984,16 +1984,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F52" s="18">
         <v>25774</v>
@@ -2030,16 +2030,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F53" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2059,7 +2059,7 @@
         <v>15</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F54" s="18">
         <v>25774</v>
@@ -2076,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F55" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2105,7 +2105,7 @@
         <v>15</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F56" s="18">
         <v>25774</v>
@@ -2122,16 +2122,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F57" s="18">
-        <v>25774</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2151,10 +2151,10 @@
         <v>15</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2168,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2197,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F60" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2214,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2243,10 +2243,10 @@
         <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F62" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2260,16 +2260,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2289,10 +2289,10 @@
         <v>15</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2306,16 +2306,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2335,10 +2335,10 @@
         <v>15</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2352,16 +2352,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2381,10 +2381,10 @@
         <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2398,16 +2398,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F69" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2427,10 +2427,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F70" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G70" s="18">
         <v>781242</v>
@@ -2444,16 +2444,16 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F71" s="18">
-        <v>26041</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
         <v>781242</v>
@@ -2467,13 +2467,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2490,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2513,13 +2513,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2536,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2559,13 +2559,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2582,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2605,13 +2605,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2628,13 +2628,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2651,13 +2651,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2674,13 +2674,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2697,13 +2697,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2720,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F83" s="18">
         <v>31249</v>
@@ -2743,13 +2743,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F84" s="18">
         <v>31249</v>
@@ -2766,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F85" s="18">
         <v>31249</v>
@@ -2789,13 +2789,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F86" s="18">
         <v>31249</v>
@@ -2812,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F87" s="18">
         <v>31249</v>
@@ -2835,13 +2835,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F88" s="18">
         <v>31249</v>
@@ -2858,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="F89" s="18">
         <v>31249</v>
@@ -2881,13 +2881,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F90" s="18">
         <v>31249</v>
@@ -2904,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F91" s="18">
         <v>31249</v>
@@ -2927,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F92" s="18">
         <v>31249</v>
@@ -2950,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F93" s="18">
         <v>31249</v>
@@ -2973,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F94" s="18">
         <v>31249</v>
@@ -2996,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="F95" s="18">
         <v>31249</v>
@@ -3019,13 +3019,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F96" s="18">
         <v>31249</v>
@@ -3042,16 +3042,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F97" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3065,16 +3065,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F98" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3088,16 +3088,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F99" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3111,16 +3111,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F100" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3134,16 +3134,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F101" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3157,16 +3157,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F102" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3180,16 +3180,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="F103" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3203,16 +3203,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F104" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3226,16 +3226,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F105" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3249,16 +3249,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D106" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F106" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3272,16 +3272,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D107" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F107" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3295,16 +3295,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="D108" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="F108" s="18">
-        <v>29509</v>
+        <v>26041</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3318,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D109" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E109" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="F109" s="24">
-        <v>22624</v>
+        <v>26041</v>
       </c>
       <c r="G109" s="24">
         <v>781242</v>
